--- a/Metadata_GIAB_For_ScientificDataPaper.v2.xlsx
+++ b/Metadata_GIAB_For_ScientificDataPaper.v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\genome-in-a-bottle\giab_data_indexes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C44109B-7801-4627-9447-8377B2FE1E83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="220" windowWidth="24920" windowHeight="13180"/>
+    <workbookView xWindow="330" yWindow="390" windowWidth="27720" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequencing Data from GIAB" sheetId="2" r:id="rId1"/>
@@ -285,111 +291,6 @@
     <t>213 kb</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/HG005_NA24631_son_HiSeq_300x/basespace_250bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NA24694_Father_HiSeq100x/NA24694_Father_HiSeq100x_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NA24695_Mother_HiSeq100x/NA24695_Mother_HiSeq100x_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_SOLiD5500W/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_SOLiD5500W/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/CORNELL_Oxford_Nanopore/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_HiSeq_HG002_Homogeneity-10953946/HG002_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_HiSeq_HG003_Homogeneity-12389378/HG003_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_HiSeq_HG004_Homogeneity-14572558/HG004_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/BioNano/</t>
-  </si>
-  <si>
     <t>564.56 bp</t>
   </si>
   <si>
@@ -399,38 +300,10 @@
     <t>278 bp</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_LFR/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_LFR/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_LFR/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/CompleteGenomics_normal_cellsDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/CompleteGenomics_normal_cellsDNA/</t>
-  </si>
-  <si>
     <t>Sequencing Technology</t>
   </si>
   <si>
     <t>Population or Group</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_RMDNA/                                  
-ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_cellsDNA/</t>
   </si>
   <si>
     <t>Mean Coverage 
@@ -461,9 +334,6 @@
     <t>HG001</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/NIST_NA12878_HG001_HiSeq_300x</t>
-  </si>
-  <si>
     <t>13-14X</t>
   </si>
   <si>
@@ -473,42 +343,21 @@
     <t>20-30X</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/10XGenomics</t>
-  </si>
-  <si>
     <t>SAMN03492678</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/CompleteGenomics_normal_RMDNA</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/analysis/CompleteGenomics_newLFR_CGAtools_06122015</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/ion_exome</t>
-  </si>
-  <si>
     <t>50 to 75 bp</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/technical/NA12878_data_other_projects/alignment/NIST_Solid5500_130201.bam</t>
-  </si>
-  <si>
     <t>80X</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/MtSinai_BioNano/</t>
-  </si>
-  <si>
     <t>0.017X</t>
   </si>
   <si>
     <t>Mt. Sinai</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/NA12878/NA12878_PacBio_MtSinai</t>
-  </si>
-  <si>
     <t>PacBio XL-C2 (24X) and P5-C3 (22X)</t>
   </si>
   <si>
@@ -516,13 +365,170 @@
   </si>
   <si>
     <t>46X</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/NIST_NA12878_HG001_HiSeq_300x</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_HiSeq_HG002_Homogeneity-10953946/HG002_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_HiSeq_HG003_Homogeneity-12389378/HG003_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_HiSeq_HG004_Homogeneity-14572558/HG004_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/HG005_NA24631_son_HiSeq_300x/basespace_250bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NA24694_Father_HiSeq100x/NA24694_Father_HiSeq100x_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NA24695_Mother_HiSeq100x/NA24695_Mother_HiSeq100x_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/10XGenomics</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/CompleteGenomics_normal_RMDNA</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_RMDNA/                                  
+ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/analysis/CompleteGenomics_newLFR_CGAtools_06122015</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_LFR/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_LFR/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_LFR/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/ion_exome</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/technical/NA12878_data_other_projects/alignment/NIST_Solid5500_130201.bam</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_SOLiD5500W/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_SOLiD5500W/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/NA12878_PacBio_MtSinai</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/CORNELL_Oxford_Nanopore/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/NA12878/MtSinai_BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/BioNano/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,113 +852,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -979,6 +883,141 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -987,39 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1344,112 +1350,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="90" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="135.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="58" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="151.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="43" thickBot="1">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="45.75" thickBot="1">
       <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="84" t="s">
-        <v>138</v>
+      <c r="I1" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="J1" s="39" t="s">
         <v>55</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>88</v>
       </c>
       <c r="J2" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="93" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1">
+      <c r="A3" s="70"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1464,18 +1470,18 @@
       <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="92"/>
-      <c r="K3" s="42"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="69"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1488,18 +1494,18 @@
       <c r="H4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="92"/>
-      <c r="K4" s="42"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="69"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1512,18 +1518,18 @@
       <c r="H5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="92"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="94"/>
       <c r="L5" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="69"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1538,22 +1544,22 @@
       <c r="H6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="93" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="54" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.5" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="54"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1566,22 +1572,22 @@
       <c r="H7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="89" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="55"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="16" t="s">
         <v>50</v>
       </c>
@@ -1594,24 +1600,24 @@
       <c r="H8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="32" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -1626,24 +1632,24 @@
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>146</v>
+      <c r="K9" s="93" t="s">
+        <v>101</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1656,18 +1662,18 @@
       <c r="H10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="42"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="94"/>
       <c r="L10" s="27" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1680,18 +1686,18 @@
       <c r="H11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="27" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="54" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1706,20 +1712,20 @@
       <c r="H12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="46" t="s">
-        <v>147</v>
+      <c r="I12" s="67"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="89" t="s">
+        <v>102</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
@@ -1732,18 +1738,18 @@
       <c r="H13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="55"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="16" t="s">
         <v>50</v>
       </c>
@@ -1756,24 +1762,24 @@
       <c r="H14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="47"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="32" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -1788,24 +1794,24 @@
       <c r="H15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="40" t="s">
-        <v>148</v>
+      <c r="K15" s="93" t="s">
+        <v>103</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1818,18 +1824,18 @@
       <c r="H16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="27" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1842,18 +1848,18 @@
       <c r="H17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="27" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="54" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1868,18 +1874,18 @@
       <c r="H18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="94"/>
       <c r="L18" s="27" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1892,18 +1898,18 @@
       <c r="H19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="86"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="42"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="17" customFormat="1" ht="15" thickBot="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="55"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="16" t="s">
         <v>50</v>
       </c>
@@ -1916,56 +1922,56 @@
       <c r="H20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="95"/>
       <c r="L20" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="83"/>
-    </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A21" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A21" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="80" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="86" t="s">
         <v>77</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21" s="81"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.5" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="52" t="s">
+      <c r="L21" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+      <c r="A22" s="78"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1980,20 +1986,20 @@
       <c r="H22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="44"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="9" t="s">
         <v>64</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -2006,20 +2012,20 @@
       <c r="H23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="44"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="87"/>
       <c r="K23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="53"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A24" s="79"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="20" t="s">
         <v>50</v>
       </c>
@@ -2032,56 +2038,56 @@
       <c r="H24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="45"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="88"/>
       <c r="K24" s="17" t="s">
         <v>66</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="93" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2096,18 +2102,18 @@
       <c r="H26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2120,18 +2126,18 @@
       <c r="H27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="42"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="94"/>
       <c r="L27" s="27" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="49"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="2" t="s">
         <v>50</v>
       </c>
@@ -2144,18 +2150,18 @@
       <c r="H28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="42"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="94"/>
       <c r="L28" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="36.5" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2170,20 +2176,20 @@
       <c r="H29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="42" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="94" t="s">
         <v>68</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="49"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
@@ -2196,18 +2202,18 @@
       <c r="H30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="74"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="42"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="94"/>
       <c r="L30" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="55"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A31" s="63"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="16" t="s">
         <v>50</v>
       </c>
@@ -2220,54 +2226,54 @@
       <c r="H31" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="41"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="95"/>
       <c r="L31" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16.75" customHeight="1">
-      <c r="A32" s="48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.7" customHeight="1">
+      <c r="A32" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="93" t="s">
         <v>57</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16.75" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.7" customHeight="1">
+      <c r="A33" s="62"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2282,18 +2288,18 @@
       <c r="H33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="74"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="42"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="94"/>
       <c r="L33" s="27" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="49"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="2" t="s">
         <v>49</v>
       </c>
@@ -2306,18 +2312,18 @@
       <c r="H34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="42"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="53"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A35" s="63"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="20" t="s">
         <v>50</v>
       </c>
@@ -2330,54 +2336,54 @@
       <c r="H35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="41"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="95"/>
       <c r="L35" s="28" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="93" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2392,18 +2398,18 @@
       <c r="H37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="74"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="42"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="27" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2416,18 +2422,18 @@
       <c r="H38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="42"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="27" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2440,21 +2446,21 @@
       <c r="H39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="42"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A40" s="63"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="17" t="s">
@@ -2466,55 +2472,55 @@
       <c r="H40" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="75"/>
-      <c r="J40" s="45"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="88"/>
       <c r="K40" s="30" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="64" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="43" t="s">
-        <v>154</v>
+      <c r="J41" s="86" t="s">
+        <v>105</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>64</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="9" customFormat="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2530,20 +2536,20 @@
       <c r="H42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="42" t="s">
+      <c r="I42" s="67"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" s="81"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+      <c r="L42" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A43" s="63"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="21" t="s">
         <v>40</v>
       </c>
@@ -2559,60 +2565,60 @@
       <c r="H43" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="41"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="95"/>
       <c r="L43" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="29" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45.75" thickBot="1">
       <c r="A44" s="19" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="11" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="98" t="s">
-        <v>162</v>
+      <c r="J44" s="59" t="s">
+        <v>110</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -2627,24 +2633,24 @@
       <c r="H45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="85" t="s">
+      <c r="I45" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="86" t="s">
         <v>83</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>70</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="49"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2657,20 +2663,20 @@
       <c r="H46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="86"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="46" t="s">
-        <v>142</v>
+      <c r="I46" s="97"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="89" t="s">
+        <v>98</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A47" s="63"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="20" t="s">
         <v>50</v>
       </c>
@@ -2683,14 +2689,14 @@
       <c r="H47" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="87"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="47"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="90"/>
       <c r="L47" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="26.25" thickBot="1">
       <c r="A48" s="22" t="s">
         <v>33</v>
       </c>
@@ -2715,60 +2721,60 @@
       <c r="H48" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="89" t="s">
+      <c r="I48" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="94" t="s">
+      <c r="J48" s="55" t="s">
         <v>84</v>
       </c>
       <c r="K48" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L48" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="L48" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A49" s="48" t="s">
+    </row>
+    <row r="49" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A49" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="95" t="s">
-        <v>141</v>
+      <c r="J49" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A50" s="62"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2783,22 +2789,22 @@
       <c r="H50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="95" t="s">
-        <v>141</v>
+      <c r="I50" s="67"/>
+      <c r="J50" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>72</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="49"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2811,22 +2817,22 @@
       <c r="H51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="93" t="s">
+      <c r="I51" s="67"/>
+      <c r="J51" s="54" t="s">
         <v>86</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>73</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="49"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2839,21 +2845,21 @@
       <c r="H52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="93" t="s">
+      <c r="I52" s="67"/>
+      <c r="J52" s="54" t="s">
         <v>87</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>74</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A53" s="63"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="21" t="s">
         <v>40</v>
       </c>
@@ -2869,72 +2875,47 @@
       <c r="H53" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="75"/>
-      <c r="J53" s="96" t="s">
+      <c r="I53" s="68"/>
+      <c r="J53" s="57" t="s">
         <v>85</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>71</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K11"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="C45:C47"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J15:J20"/>
     <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K11"/>
     <mergeCell ref="K15:K20"/>
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="J32:J35"/>
@@ -2945,66 +2926,95 @@
     <mergeCell ref="J45:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="K36:K39"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1"/>
-    <hyperlink ref="L7" r:id="rId2"/>
-    <hyperlink ref="L8" r:id="rId3"/>
-    <hyperlink ref="L42" r:id="rId4"/>
-    <hyperlink ref="L43" r:id="rId5"/>
-    <hyperlink ref="L9" r:id="rId6"/>
-    <hyperlink ref="L10" r:id="rId7"/>
-    <hyperlink ref="L11" r:id="rId8"/>
-    <hyperlink ref="L12" r:id="rId9"/>
-    <hyperlink ref="L13" r:id="rId10"/>
-    <hyperlink ref="L14" r:id="rId11"/>
-    <hyperlink ref="L15" r:id="rId12"/>
-    <hyperlink ref="L16" r:id="rId13"/>
-    <hyperlink ref="L17" r:id="rId14"/>
-    <hyperlink ref="L18" r:id="rId15"/>
-    <hyperlink ref="L19" r:id="rId16"/>
-    <hyperlink ref="L20" r:id="rId17"/>
-    <hyperlink ref="L21" r:id="rId18"/>
-    <hyperlink ref="L23" r:id="rId19"/>
-    <hyperlink ref="L24" r:id="rId20"/>
-    <hyperlink ref="L48" r:id="rId21"/>
-    <hyperlink ref="L49" r:id="rId22"/>
-    <hyperlink ref="L51" r:id="rId23"/>
-    <hyperlink ref="L52" r:id="rId24"/>
-    <hyperlink ref="L53" r:id="rId25"/>
-    <hyperlink ref="L45" r:id="rId26"/>
-    <hyperlink ref="L46" r:id="rId27"/>
-    <hyperlink ref="L47" r:id="rId28"/>
-    <hyperlink ref="L38" r:id="rId29"/>
-    <hyperlink ref="L39" r:id="rId30"/>
-    <hyperlink ref="L40" r:id="rId31"/>
-    <hyperlink ref="L2" r:id="rId32"/>
-    <hyperlink ref="L4" r:id="rId33"/>
-    <hyperlink ref="L5" r:id="rId34"/>
-    <hyperlink ref="L36" r:id="rId35"/>
-    <hyperlink ref="L35" r:id="rId36"/>
-    <hyperlink ref="L34" r:id="rId37"/>
-    <hyperlink ref="L27" r:id="rId38"/>
-    <hyperlink ref="L32" r:id="rId39"/>
-    <hyperlink ref="L25" r:id="rId40"/>
-    <hyperlink ref="L30" r:id="rId41"/>
-    <hyperlink ref="L31" r:id="rId42"/>
-    <hyperlink ref="L28" r:id="rId43"/>
-    <hyperlink ref="L3" r:id="rId44"/>
-    <hyperlink ref="L22" r:id="rId45"/>
-    <hyperlink ref="L41" r:id="rId46"/>
-    <hyperlink ref="L44" r:id="rId47"/>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L43" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L2" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L5" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L34" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L27" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L30" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L31" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L28" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L3" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L41" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L44" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L26" r:id="rId48" xr:uid="{D0F8986A-54C8-4779-BE50-2C0EB1663D03}"/>
+    <hyperlink ref="L33" r:id="rId49" xr:uid="{21D6429F-5DE2-4236-86EC-8075BCC6A0D1}"/>
+    <hyperlink ref="L37" r:id="rId50" xr:uid="{5A5E164A-02AB-4E7C-B54E-373D3C1E67CE}"/>
+    <hyperlink ref="L50" r:id="rId51" xr:uid="{59A1B541-6755-48DB-9420-70381D7DA74B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape"/>
